--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H2">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I2">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J2">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.6690873347634</v>
+        <v>44.50020533333333</v>
       </c>
       <c r="N2">
-        <v>21.6690873347634</v>
+        <v>133.500616</v>
       </c>
       <c r="O2">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="P2">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="Q2">
-        <v>442.871361352702</v>
+        <v>58.97773896906044</v>
       </c>
       <c r="R2">
-        <v>442.871361352702</v>
+        <v>530.799650721544</v>
       </c>
       <c r="S2">
-        <v>0.08586642354532412</v>
+        <v>0.008541132996447751</v>
       </c>
       <c r="T2">
-        <v>0.08586642354532412</v>
+        <v>0.008541132996447751</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H3">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I3">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J3">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.8580404368064</v>
+        <v>28.185334</v>
       </c>
       <c r="N3">
-        <v>27.8580404368064</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O3">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="P3">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="Q3">
-        <v>569.3607719728074</v>
+        <v>37.35504721733533</v>
       </c>
       <c r="R3">
-        <v>569.3607719728074</v>
+        <v>336.195424956018</v>
       </c>
       <c r="S3">
-        <v>0.1103909113630283</v>
+        <v>0.005409743268374896</v>
       </c>
       <c r="T3">
-        <v>0.1103909113630283</v>
+        <v>0.005409743268374895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H4">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I4">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J4">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.5407280390503</v>
+        <v>62.31760433333333</v>
       </c>
       <c r="N4">
-        <v>57.5407280390503</v>
+        <v>186.952813</v>
       </c>
       <c r="O4">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273345</v>
       </c>
       <c r="P4">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273344</v>
       </c>
       <c r="Q4">
-        <v>1176.013560986372</v>
+        <v>82.59178522925743</v>
       </c>
       <c r="R4">
-        <v>1176.013560986372</v>
+        <v>743.3260670633169</v>
       </c>
       <c r="S4">
-        <v>0.2280122115240599</v>
+        <v>0.01196090990241593</v>
       </c>
       <c r="T4">
-        <v>0.2280122115240599</v>
+        <v>0.01196090990241592</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>20.4379332876752</v>
+        <v>1.325336333333333</v>
       </c>
       <c r="H5">
-        <v>20.4379332876752</v>
+        <v>3.976009</v>
       </c>
       <c r="I5">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="J5">
-        <v>0.486930683244272</v>
+        <v>0.02918077208126263</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.8130453093232</v>
+        <v>17.031762</v>
       </c>
       <c r="N5">
-        <v>15.8130453093232</v>
+        <v>51.09528599999999</v>
       </c>
       <c r="O5">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="P5">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="Q5">
-        <v>323.1859651069328</v>
+        <v>22.57281299928599</v>
       </c>
       <c r="R5">
-        <v>323.1859651069328</v>
+        <v>203.155316993574</v>
       </c>
       <c r="S5">
-        <v>0.06266113681185975</v>
+        <v>0.003268985914024058</v>
       </c>
       <c r="T5">
-        <v>0.06266113681185975</v>
+        <v>0.003268985914024058</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.5350497075705</v>
+        <v>20.45485233333333</v>
       </c>
       <c r="H6">
-        <v>21.5350497075705</v>
+        <v>61.364557</v>
       </c>
       <c r="I6">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="J6">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.6690873347634</v>
+        <v>44.50020533333333</v>
       </c>
       <c r="N6">
-        <v>21.6690873347634</v>
+        <v>133.500616</v>
       </c>
       <c r="O6">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="P6">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="Q6">
-        <v>466.6448728718162</v>
+        <v>910.2451288963457</v>
       </c>
       <c r="R6">
-        <v>466.6448728718162</v>
+        <v>8192.206160067111</v>
       </c>
       <c r="S6">
-        <v>0.09047576744831398</v>
+        <v>0.1318213421058903</v>
       </c>
       <c r="T6">
-        <v>0.09047576744831398</v>
+        <v>0.1318213421058903</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.5350497075705</v>
+        <v>20.45485233333333</v>
       </c>
       <c r="H7">
-        <v>21.5350497075705</v>
+        <v>61.364557</v>
       </c>
       <c r="I7">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="J7">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.8580404368064</v>
+        <v>28.185334</v>
       </c>
       <c r="N7">
-        <v>27.8580404368064</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O7">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="P7">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="Q7">
-        <v>599.9242855621349</v>
+        <v>576.5268449356793</v>
       </c>
       <c r="R7">
-        <v>599.9242855621349</v>
+        <v>5188.741604421113</v>
       </c>
       <c r="S7">
-        <v>0.1163167395648758</v>
+        <v>0.08349239127666905</v>
       </c>
       <c r="T7">
-        <v>0.1163167395648758</v>
+        <v>0.08349239127666903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.5350497075705</v>
+        <v>20.45485233333333</v>
       </c>
       <c r="H8">
-        <v>21.5350497075705</v>
+        <v>61.364557</v>
       </c>
       <c r="I8">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="J8">
-        <v>0.513069316755728</v>
+        <v>0.4503674794711605</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.5407280390503</v>
+        <v>62.31760433333333</v>
       </c>
       <c r="N8">
-        <v>57.5407280390503</v>
+        <v>186.952813</v>
       </c>
       <c r="O8">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273345</v>
       </c>
       <c r="P8">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273344</v>
       </c>
       <c r="Q8">
-        <v>1239.142438530744</v>
+        <v>1274.697394405427</v>
       </c>
       <c r="R8">
-        <v>1239.142438530744</v>
+        <v>11472.27654964884</v>
       </c>
       <c r="S8">
-        <v>0.2402519980855778</v>
+        <v>0.1846011760734612</v>
       </c>
       <c r="T8">
-        <v>0.2402519980855778</v>
+        <v>0.1846011760734612</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>20.45485233333333</v>
+      </c>
+      <c r="H9">
+        <v>61.364557</v>
+      </c>
+      <c r="I9">
+        <v>0.4503674794711605</v>
+      </c>
+      <c r="J9">
+        <v>0.4503674794711605</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.031762</v>
+      </c>
+      <c r="N9">
+        <v>51.09528599999999</v>
+      </c>
+      <c r="O9">
+        <v>0.1120253400054181</v>
+      </c>
+      <c r="P9">
+        <v>0.1120253400054181</v>
+      </c>
+      <c r="Q9">
+        <v>348.3821766864779</v>
+      </c>
+      <c r="R9">
+        <v>3135.439590178301</v>
+      </c>
+      <c r="S9">
+        <v>0.05045257001513991</v>
+      </c>
+      <c r="T9">
+        <v>0.0504525700151399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H10">
+        <v>70.913848</v>
+      </c>
+      <c r="I10">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J10">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>44.50020533333333</v>
+      </c>
+      <c r="N10">
+        <v>133.500616</v>
+      </c>
+      <c r="O10">
+        <v>0.2926972930209797</v>
+      </c>
+      <c r="P10">
+        <v>0.2926972930209797</v>
+      </c>
+      <c r="Q10">
+        <v>1051.893598992263</v>
+      </c>
+      <c r="R10">
+        <v>9467.042390930368</v>
+      </c>
+      <c r="S10">
+        <v>0.1523348179186416</v>
+      </c>
+      <c r="T10">
+        <v>0.1523348179186416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>21.5350497075705</v>
-      </c>
-      <c r="H9">
-        <v>21.5350497075705</v>
-      </c>
-      <c r="I9">
-        <v>0.513069316755728</v>
-      </c>
-      <c r="J9">
-        <v>0.513069316755728</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>15.8130453093232</v>
-      </c>
-      <c r="N9">
-        <v>15.8130453093232</v>
-      </c>
-      <c r="O9">
-        <v>0.1286859484688201</v>
-      </c>
-      <c r="P9">
-        <v>0.1286859484688201</v>
-      </c>
-      <c r="Q9">
-        <v>340.5347167643397</v>
-      </c>
-      <c r="R9">
-        <v>340.5347167643397</v>
-      </c>
-      <c r="S9">
-        <v>0.06602481165696034</v>
-      </c>
-      <c r="T9">
-        <v>0.06602481165696034</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H11">
+        <v>70.913848</v>
+      </c>
+      <c r="I11">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J11">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>28.185334</v>
+      </c>
+      <c r="N11">
+        <v>84.55600199999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1853872561462678</v>
+      </c>
+      <c r="P11">
+        <v>0.1853872561462678</v>
+      </c>
+      <c r="Q11">
+        <v>666.2434970350773</v>
+      </c>
+      <c r="R11">
+        <v>5996.191473315695</v>
+      </c>
+      <c r="S11">
+        <v>0.0964851216012239</v>
+      </c>
+      <c r="T11">
+        <v>0.09648512160122388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H12">
+        <v>70.913848</v>
+      </c>
+      <c r="I12">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J12">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>62.31760433333333</v>
+      </c>
+      <c r="N12">
+        <v>186.952813</v>
+      </c>
+      <c r="O12">
+        <v>0.4098901108273345</v>
+      </c>
+      <c r="P12">
+        <v>0.4098901108273344</v>
+      </c>
+      <c r="Q12">
+        <v>1473.060373806047</v>
+      </c>
+      <c r="R12">
+        <v>13257.54336425442</v>
+      </c>
+      <c r="S12">
+        <v>0.2133280248514573</v>
+      </c>
+      <c r="T12">
+        <v>0.2133280248514573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>23.63794933333334</v>
+      </c>
+      <c r="H13">
+        <v>70.913848</v>
+      </c>
+      <c r="I13">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="J13">
+        <v>0.5204517484475769</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.031762</v>
+      </c>
+      <c r="N13">
+        <v>51.09528599999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1120253400054181</v>
+      </c>
+      <c r="P13">
+        <v>0.1120253400054181</v>
+      </c>
+      <c r="Q13">
+        <v>402.595927213392</v>
+      </c>
+      <c r="R13">
+        <v>3623.363344920528</v>
+      </c>
+      <c r="S13">
+        <v>0.05830378407625413</v>
+      </c>
+      <c r="T13">
+        <v>0.05830378407625413</v>
       </c>
     </row>
   </sheetData>
